--- a/io/evolver/output/analysis.xlsx
+++ b/io/evolver/output/analysis.xlsx
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,10 +499,12 @@
   <cols>
     <col width="2" customWidth="1" min="1" max="1"/>
     <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -515,7 +517,9 @@
       <c r="C2" s="3" t="n"/>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="3" t="n"/>
-      <c r="F2" s="4" t="n"/>
+      <c r="F2" s="3" t="n"/>
+      <c r="G2" s="3" t="n"/>
+      <c r="H2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="B3" s="5" t="inlineStr">
@@ -525,20 +529,30 @@
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
+          <t>Number of reactions</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
           <t>Number of species</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Number of non-zero species</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Introduced Species</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="F3" s="5" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
@@ -549,15 +563,23 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>162</v>
+        <v>277</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>3353.174966024942</v>
+        <v>157</v>
       </c>
       <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>BAABBAABAA</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>5029.174966027661</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -568,15 +590,23 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>163</v>
+        <v>278</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>3892.274966024451</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>BAABAAAA</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>7969.874966038359</v>
+      </c>
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -587,15 +617,23 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>166</v>
+        <v>279</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3952.074966024397</v>
+        <v>135</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>BABAABBAB</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>8515.574966040343</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -603,7 +641,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/io/evolver/output/analysis.xlsx
+++ b/io/evolver/output/analysis.xlsx
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,9 +502,10 @@
     <col width="21" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="28" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="29" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -519,7 +520,8 @@
       <c r="E2" s="3" t="n"/>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
-      <c r="H2" s="4" t="n"/>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="B3" s="5" t="inlineStr">
@@ -544,15 +546,20 @@
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>Introduced Species</t>
+          <t>Introduced species name</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
+          <t>Introduced species type</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>Accepted</t>
         </is>
@@ -563,23 +570,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F4" s="6" t="inlineStr">
         <is>
-          <t>BAABBAABAA</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="n">
-        <v>5029.174966027661</v>
-      </c>
-      <c r="H4" s="6" t="inlineStr">
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>6102.874966031567</v>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
@@ -590,23 +602,28 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="inlineStr">
         <is>
-          <t>BAABAAAA</t>
-        </is>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>7969.874966038359</v>
-      </c>
-      <c r="H5" s="7" t="inlineStr">
+          <t>['BBBAAAAA', 'ABBBAABBBB']</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>8291.474966039528</v>
+      </c>
+      <c r="I5" s="7" t="inlineStr">
         <is>
           <t>No</t>
         </is>
@@ -617,31 +634,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>BABAABBAB</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>8515.574966040343</v>
-      </c>
-      <c r="H6" s="6" t="inlineStr">
+          <t>['BBBABABAA', 'ABAABBBBAA']</t>
+        </is>
+      </c>
+      <c r="G6" s="6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>8579.474966040576</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr">
         <is>
           <t>No</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>312</v>
+      </c>
+      <c r="D7" s="7" t="n">
+        <v>188</v>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F7" s="7" t="inlineStr">
+        <is>
+          <t>['BAAAABAABB', 'BBAAABBBB']</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>Yes</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:I2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/io/evolver/output/analysis.xlsx
+++ b/io/evolver/output/analysis.xlsx
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="H4" s="6" t="n">
-        <v>6102.874966031567</v>
+        <v>5583.274966029677</v>
       </c>
       <c r="I4" s="6" t="inlineStr">
         <is>
@@ -602,17 +602,17 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="inlineStr">
         <is>
-          <t>['BBBAAAAA', 'ABBBAABBBB']</t>
+          <t>['BBBABBAAB', 'AAAAAAAABB']</t>
         </is>
       </c>
       <c r="G5" s="7" t="inlineStr">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="H5" s="7" t="n">
-        <v>8291.474966039528</v>
+        <v>7920.474966038179</v>
       </c>
       <c r="I5" s="7" t="inlineStr">
         <is>
@@ -634,26 +634,26 @@
         <v>3</v>
       </c>
       <c r="C6" s="6" t="n">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="F6" s="6" t="inlineStr">
         <is>
-          <t>['BBBABABAA', 'ABAABBBBAA']</t>
+          <t>['ABBBBBAA']</t>
         </is>
       </c>
       <c r="G6" s="6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8579.474966040576</v>
+        <v>8830.074966041488</v>
       </c>
       <c r="I6" s="6" t="inlineStr">
         <is>
@@ -666,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
@@ -678,12 +678,12 @@
       </c>
       <c r="F7" s="7" t="inlineStr">
         <is>
-          <t>['BAAAABAABB', 'BBAAABBBB']</t>
+          <t>['ABAAAAAAAA']</t>
         </is>
       </c>
       <c r="G7" s="7" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="H7" s="7" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="I7" s="7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
